--- a/output_4/all_schools_combined.xlsx
+++ b/output_4/all_schools_combined.xlsx
@@ -1091,7 +1091,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
-        <v>0.71</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="n">
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40483</v>
+        <v>41234</v>
       </c>
       <c r="D11" t="n">
         <v>37492</v>
@@ -1122,7 +1122,7 @@
         <v>2991</v>
       </c>
       <c r="F11" t="n">
-        <v>10833</v>
+        <v>10855</v>
       </c>
       <c r="G11" t="n">
         <v>8423</v>
@@ -1133,7 +1133,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>51316</v>
+        <v>52089</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1169,7 +1169,7 @@
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="n">
-        <v>31400</v>
+        <v>17803</v>
       </c>
       <c r="AD11" t="n">
         <v>12564</v>
@@ -1197,38 +1197,22 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>2907</v>
-      </c>
-      <c r="O12" t="n">
-        <v>839</v>
-      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="n">
-        <v>3746</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5789</v>
-      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="n">
-        <v>4379</v>
-      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="n">
-        <v>608</v>
-      </c>
+      <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="n">
-        <v>190</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>37840</v>
-      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1393,14 +1377,14 @@
       <c r="K15" t="n">
         <v>15334</v>
       </c>
-      <c r="L15" t="n">
-        <v>14417</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>14417</v>
+      </c>
       <c r="R15" t="n">
         <v>15533</v>
       </c>
@@ -1435,12 +1419,12 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2778</v>
+        <v>3117</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>62</v>
+        <v>606</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1476,9 +1460,7 @@
       <c r="Z16" t="n">
         <v>139</v>
       </c>
-      <c r="AA16" t="n">
-        <v>79</v>
-      </c>
+      <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="n">
         <v>37734</v>
@@ -1500,7 +1482,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>31290</v>
+        <v>31935</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1574,7 +1556,9 @@
         <v>375</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>5213</v>
+      </c>
       <c r="L18" t="n">
         <v>4011</v>
       </c>
@@ -1729,7 +1713,7 @@
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="n">
-        <v>15346</v>
+        <v>15306</v>
       </c>
       <c r="AD20" t="inlineStr"/>
     </row>
